--- a/src/main/resources/templates/ObjectSchemeFieldImportGuideTemplate.xlsx
+++ b/src/main/resources/templates/ObjectSchemeFieldImportGuideTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98034C1-1C6E-4F13-8609-6330FE0C94AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316FE49D-361A-4B56-A6CA-15ABC0FFD890}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>多选项输入格式：选项之间使用逗号分隔，支持中英文，不能以逗号结尾</t>
   </si>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>编码</t>
+  </si>
+  <si>
+    <t>数字输入框默认为整数格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -194,29 +198,29 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -502,7 +506,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -516,133 +520,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="40.5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="27">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="27">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="28.5">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="13" spans="1:5" ht="71.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="85.5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>

--- a/src/main/resources/templates/ObjectSchemeFieldImportGuideTemplate.xlsx
+++ b/src/main/resources/templates/ObjectSchemeFieldImportGuideTemplate.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316FE49D-361A-4B56-A6CA-15ABC0FFD890}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A845734C-7D1D-4AD0-83B1-0FDDB5129FBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="要求2" sheetId="2" r:id="rId1"/>
+    <sheet name="要求" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -86,22 +86,24 @@
     <t>字段类型</t>
   </si>
   <si>
-    <t>必填项，当前字段设置唯一，字符数在6个以内</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
     <t>请至下一页，填写信息</t>
   </si>
   <si>
-    <t>必填项，项目下唯一，只允许数字、字母及下划线且字符数在10个以内</t>
-  </si>
-  <si>
     <t>编码</t>
   </si>
   <si>
     <t>数字输入框默认为整数格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填项，项目下唯一，只允许数字、字母及下划线且字符数在30个以内</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填项，当前字段设置唯一，字符数在30个以内</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -505,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13C3B08-92B1-4B44-B80E-9FB90B26FE12}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -521,23 +523,23 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -634,7 +636,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="85.5">
@@ -660,5 +662,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/templates/ObjectSchemeFieldImportGuideTemplate.xlsx
+++ b/src/main/resources/templates/ObjectSchemeFieldImportGuideTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A845734C-7D1D-4AD0-83B1-0FDDB5129FBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF7A395-3216-4EE1-8C24-73D9DE68CCE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>多选项输入格式：选项之间使用逗号分隔，支持中英文，不能以逗号结尾</t>
-  </si>
-  <si>
     <t>所有日期类型数据请输入正确的格式，否则报错，以下均为正确格式
 yyyy-MM-dd HH:mm:ss
 yyyy/MM/dd HH:mm:ss
@@ -38,72 +35,79 @@
 HH:mm:ss</t>
   </si>
   <si>
+    <t>注意：</t>
+  </si>
+  <si>
+    <t>仅字段类型为单选框、多选框、选择器（单选）、选择器多选时生效，
+非必填，默认为否。选项是否停用</t>
+  </si>
+  <si>
+    <t>是否启用</t>
+  </si>
+  <si>
+    <t>显示值</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>非填项，根据不同字段类型，设置对应默认值</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>必选项，您可以选择故事、任务、子任务、缺陷等问题类型。可多选</t>
+  </si>
+  <si>
+    <t>问题类型</t>
+  </si>
+  <si>
+    <t>必选项，您可以选择单选框、多选框、时间选择器、日期时间选择器、数字输入框、文本框（单行）、文本框（多行）、选择器（单选）、选择器（多选）、人员、日期选择器、人员（多选）</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>请至下一页，填写信息</t>
+  </si>
+  <si>
+    <t>编码</t>
+  </si>
+  <si>
+    <t>数字输入框默认为整数格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填项，项目下唯一，只允许数字、字母及下划线且字符数在30个以内</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填项，当前字段设置唯一，字符数在30个以内</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>不同字段类型对应的默认值设置不同：
 1.单选框、多选框、选择器：默认值输入选项的显示值；
 2.人员、人员（多选）：默认值输入当前组织或项目成员的用户名；
 3.时间、时间日期、日期选择器：默认值根据日期类型输入正确格式。如果默认值为当前时间，请直接输入“当前时间”；</t>
-  </si>
-  <si>
-    <t>注意：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选项默认值输入格式：选项之间使用逗号分隔，支持中英文，不能以逗号结尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>仅字段类型为单选框、多选框、选择器（单选）、选择器多选时生效，
-非必填，默认为否。选项是否停用</t>
-  </si>
-  <si>
-    <t>是否启用</t>
+选项的值，必填项，当前字段下唯一（在配置字段紧挨的行仅填写值属性视为配置多个值列表）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>仅字段类型为单选框、多选框、选择器（单选）、选择器多选时生效，
-选项的显示值，必填项，当前字段下唯一</t>
-  </si>
-  <si>
-    <t>显示值</t>
-  </si>
-  <si>
-    <t>仅字段类型为单选框、多选框、选择器（单选）、选择器多选时生效，
-选项的值，必填项，当前字段下唯一</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>非填项，根据不同字段类型，设置对应默认值</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>必选项，您可以选择故事、任务、子任务、缺陷等问题类型。可多选</t>
-  </si>
-  <si>
-    <t>问题类型</t>
-  </si>
-  <si>
-    <t>必选项，您可以选择单选框、多选框、时间选择器、日期时间选择器、数字输入框、文本框（单行）、文本框（多行）、选择器（单选）、选择器（多选）、人员、日期选择器、人员（多选）</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>请至下一页，填写信息</t>
-  </si>
-  <si>
-    <t>编码</t>
-  </si>
-  <si>
-    <t>数字输入框默认为整数格式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填项，项目下唯一，只允许数字、字母及下划线且字符数在30个以内</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填项，当前字段设置唯一，字符数在30个以内</t>
+选项的显示值，必填项，当前字段下唯一（在配置字段紧挨的行仅填写值属性视为配置多个值列表）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -507,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13C3B08-92B1-4B44-B80E-9FB90B26FE12}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -523,23 +527,23 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -547,10 +551,10 @@
     </row>
     <row r="3" spans="1:5" ht="40.5">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -558,10 +562,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -569,32 +573,32 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="27">
+    <row r="6" spans="1:5" ht="40.5">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="27">
+    <row r="7" spans="1:5" ht="40.5">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -602,10 +606,10 @@
     </row>
     <row r="8" spans="1:5" ht="28.5">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -627,22 +631,22 @@
     </row>
     <row r="13" spans="1:5" ht="71.25">
       <c r="A13" s="9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="85.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -652,7 +656,7 @@
     <row r="17" spans="1:2">
       <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templates/ObjectSchemeFieldImportGuideTemplate.xlsx
+++ b/src/main/resources/templates/ObjectSchemeFieldImportGuideTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF7A395-3216-4EE1-8C24-73D9DE68CCE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847922C5-DB5D-4AAD-B852-F3EE1BD8E660}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,10 +38,6 @@
     <t>注意：</t>
   </si>
   <si>
-    <t>仅字段类型为单选框、多选框、选择器（单选）、选择器多选时生效，
-非必填，默认为否。选项是否停用</t>
-  </si>
-  <si>
     <t>是否启用</t>
   </si>
   <si>
@@ -108,6 +104,11 @@
   <si>
     <t>仅字段类型为单选框、多选框、选择器（单选）、选择器多选时生效，
 选项的显示值，必填项，当前字段下唯一（在配置字段紧挨的行仅填写值属性视为配置多个值列表）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅字段类型为单选框、多选框、选择器（单选）、选择器多选时生效，
+非必填，默认为是。选项是否启用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +513,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B9:B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -527,23 +528,23 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -551,10 +552,10 @@
     </row>
     <row r="3" spans="1:5" ht="40.5">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -562,10 +563,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -573,10 +574,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -584,10 +585,10 @@
     </row>
     <row r="6" spans="1:5" ht="40.5">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -595,10 +596,10 @@
     </row>
     <row r="7" spans="1:5" ht="40.5">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -606,10 +607,10 @@
     </row>
     <row r="8" spans="1:5" ht="28.5">
       <c r="A8" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -634,13 +635,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="85.5">
@@ -656,7 +657,7 @@
     <row r="17" spans="1:2">
       <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templates/ObjectSchemeFieldImportGuideTemplate.xlsx
+++ b/src/main/resources/templates/ObjectSchemeFieldImportGuideTemplate.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847922C5-DB5D-4AAD-B852-F3EE1BD8E660}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6655C3C6-DFB0-4421-A920-F99869CC9B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要求" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>所有日期类型数据请输入正确的格式，否则报错，以下均为正确格式
 yyyy-MM-dd HH:mm:ss
@@ -74,15 +74,22 @@
     <t>编码</t>
   </si>
   <si>
-    <t>数字输入框默认为整数格式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>必填项，项目下唯一，只允许数字、字母及下划线且字符数在30个以内</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>必填项，当前字段设置唯一，字符数在30个以内</t>
+  </si>
+  <si>
+    <t>仅字段类型为单选框、多选框、选择器（单选）、选择器多选时生效，
+选项的值，必填项，当前字段下唯一（在配置字段紧挨的行仅填写值属性视为配置多个值列表）</t>
+  </si>
+  <si>
+    <t>仅字段类型为单选框、多选框、选择器（单选）、选择器多选时生效，
+选项的显示值，必填项，当前字段下唯一（在配置字段紧挨的行仅填写值属性视为配置多个值列表）</t>
+  </si>
+  <si>
+    <t>仅字段类型为单选框、多选框、选择器（单选）、选择器多选时生效，
+非必填，默认为是。控制对应值列表选项是否启用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -90,33 +97,142 @@
 1.单选框、多选框、选择器：默认值输入选项的显示值；
 2.人员、人员（多选）：默认值输入当前组织或项目成员的用户名；
 3.时间、时间日期、日期选择器：默认值根据日期类型输入正确格式。如果默认值为当前时间，请直接输入“当前时间”；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字输入框默认为整数格式</t>
   </si>
   <si>
     <t>多选项默认值输入格式：选项之间使用逗号分隔，支持中英文，不能以逗号结尾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅字段类型为单选框、多选框、选择器（单选）、选择器多选时生效，
-选项的值，必填项，当前字段下唯一（在配置字段紧挨的行仅填写值属性视为配置多个值列表）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅字段类型为单选框、多选框、选择器（单选）、选择器多选时生效，
-选项的显示值，必填项，当前字段下唯一（在配置字段紧挨的行仅填写值属性视为配置多个值列表）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅字段类型为单选框、多选框、选择器（单选）、选择器多选时生效，
-非必填，默认为是。选项是否启用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例：</t>
+  </si>
+  <si>
+    <t>编码*</t>
+  </si>
+  <si>
+    <t>名称*</t>
+  </si>
+  <si>
+    <t>字段类型*</t>
+  </si>
+  <si>
+    <t>问题类型*</t>
+  </si>
+  <si>
+    <t>select1</t>
+  </si>
+  <si>
+    <t>示例单选</t>
+  </si>
+  <si>
+    <t>选择器（单选）</t>
+  </si>
+  <si>
+    <t>故事</t>
+  </si>
+  <si>
+    <t>示例单选显示值2</t>
+  </si>
+  <si>
+    <t>示例单选值1</t>
+  </si>
+  <si>
+    <t>示例单选显示值1</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>示例单选值2</t>
+  </si>
+  <si>
+    <t>示例单选值3</t>
+  </si>
+  <si>
+    <t>示例单选显示值3</t>
+  </si>
+  <si>
+    <t>select2</t>
+  </si>
+  <si>
+    <t>示例多选</t>
+  </si>
+  <si>
+    <t>选择器（多选）</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>示例多选显示值2，示例多选显示值3</t>
+  </si>
+  <si>
+    <t>示例多选值1</t>
+  </si>
+  <si>
+    <t>示例多选显示值1</t>
+  </si>
+  <si>
+    <t>示例多选值2</t>
+  </si>
+  <si>
+    <t>示例多选显示值2</t>
+  </si>
+  <si>
+    <t>示例多选值3</t>
+  </si>
+  <si>
+    <t>示例多选显示值3</t>
+  </si>
+  <si>
+    <t>示例多选值4</t>
+  </si>
+  <si>
+    <t>示例多选显示值4</t>
+  </si>
+  <si>
+    <t>date1</t>
+  </si>
+  <si>
+    <t>示例时间</t>
+  </si>
+  <si>
+    <t>时间选择器</t>
+  </si>
+  <si>
+    <t>缺陷</t>
+  </si>
+  <si>
+    <t>date2</t>
+  </si>
+  <si>
+    <t>示例时间2</t>
+  </si>
+  <si>
+    <t>当前时间</t>
+  </si>
+  <si>
+    <t>persons</t>
+  </si>
+  <si>
+    <t>示例人员多选</t>
+  </si>
+  <si>
+    <t>人员（多选）</t>
+  </si>
+  <si>
+    <t>史诗</t>
+  </si>
+  <si>
+    <t>用户A，用户B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,16 +288,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,6 +317,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -196,37 +339,46 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -510,155 +662,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13C3B08-92B1-4B44-B80E-9FB90B26FE12}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="10.08203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="65.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.9140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.08203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="8.25" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="42">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="42">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" ht="40.5">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" ht="40.5">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" ht="40.5">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="42">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" ht="28.5">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="28">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="13" spans="1:5" ht="71.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="70">
       <c r="A13" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
+      <c r="B13" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9"/>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="85.5">
+      <c r="B14" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="84">
       <c r="A15" s="9"/>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="9"/>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B17" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.5">
+      <c r="A21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="F23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="F24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="F26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="F27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="F28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.50847222222222199</v>
+      </c>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/main/resources/templates/ObjectSchemeFieldImportGuideTemplate.xlsx
+++ b/src/main/resources/templates/ObjectSchemeFieldImportGuideTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6655C3C6-DFB0-4421-A920-F99869CC9B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279B5813-5DCA-2341-9BA6-5E03A5D67507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要求" sheetId="2" r:id="rId1"/>
@@ -53,12 +53,6 @@
     <t>默认值</t>
   </si>
   <si>
-    <t>必选项，您可以选择故事、任务、子任务、缺陷等问题类型。可多选</t>
-  </si>
-  <si>
-    <t>问题类型</t>
-  </si>
-  <si>
     <t>必选项，您可以选择单选框、多选框、时间选择器、日期时间选择器、数字输入框、文本框（单行）、文本框（多行）、选择器（单选）、选择器（多选）、人员、日期选择器、人员（多选）</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>字段类型*</t>
   </si>
   <si>
-    <t>问题类型*</t>
-  </si>
-  <si>
     <t>select1</t>
   </si>
   <si>
@@ -226,13 +217,43 @@
   </si>
   <si>
     <t>用户A，用户B</t>
+  </si>
+  <si>
+    <t>工作项类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必选项，您可以选择故事、任务、子任务、缺陷等工作项类型。可多选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作项类型</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +315,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -339,47 +374,50 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -664,68 +702,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13C3B08-92B1-4B44-B80E-9FB90B26FE12}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.08203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="65.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.9140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.08203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="8.25" style="5"/>
+    <col min="1" max="1" width="10" style="3" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="42">
+        <v>13</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" ht="45">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
@@ -734,278 +772,278 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="42">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="45">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="42">
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="45">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="28">
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="32">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="70">
-      <c r="A13" s="9" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="80">
+      <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="12"/>
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="96">
+      <c r="A15" s="12"/>
+      <c r="B15" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="12"/>
+      <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="84">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="9"/>
-      <c r="B17" s="11" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="5" t="s">
+      <c r="B21" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.5">
-      <c r="A21" s="12" t="s">
+      <c r="C21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="D21" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="C22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="F22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="G22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="H22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="5" t="s">
+    </row>
+    <row r="23" spans="1:8">
+      <c r="F23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="F24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="G24" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="F23" s="5" t="s">
+      <c r="H24" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="F24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="5" t="s">
+    </row>
+    <row r="26" spans="1:8">
+      <c r="F26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H26" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="F27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="F26" s="5" t="s">
+      <c r="G27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H27" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="F28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="F27" s="5" t="s">
+      <c r="G28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H28" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="F28" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="E29" s="11">
+        <v>0.50847222222222199</v>
+      </c>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="C30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="14">
-        <v>0.50847222222222199</v>
-      </c>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="5" t="s">
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
